--- a/src/attributions/attributions_saliency_traj_205.xlsx
+++ b/src/attributions/attributions_saliency_traj_205.xlsx
@@ -1004,1709 +1004,1709 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0008536496316082776</v>
+        <v>0.1355691105127335</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001737920334562659</v>
+        <v>1.39821982383728</v>
       </c>
       <c r="C2" t="n">
-        <v>8.02008798928e-05</v>
+        <v>0.1985696107149124</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00189153291285038</v>
+        <v>0.4027280211448669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001656142994761467</v>
+        <v>0.04700496792793274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001494479482062161</v>
+        <v>0.149288535118103</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001122634741477668</v>
+        <v>0.01866766810417175</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005802150117233396</v>
+        <v>0.01758617535233498</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003688122145831585</v>
+        <v>0.01122946850955486</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00122160348109901</v>
+        <v>0.05255087465047836</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009244764223694801</v>
+        <v>1.168311357498169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008956844685599208</v>
+        <v>0.05268421024084091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0008080446859821677</v>
+        <v>0.5482014417648315</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00193210830911994</v>
+        <v>0.02998380362987518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001462295622332022</v>
+        <v>0.1158875823020935</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0012426080647856</v>
+        <v>0.0383230596780777</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002134102862328291</v>
+        <v>0.07712471485137939</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005602123681455851</v>
+        <v>0.0313803106546402</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0005048530292697251</v>
+        <v>0.004737215116620064</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001166403526440263</v>
+        <v>0.2368428707122803</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003688329015858471</v>
+        <v>0.1951732337474823</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002185778284911066</v>
+        <v>0.03372015431523323</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001734905177727342</v>
+        <v>0.216458186507225</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0002647318760864437</v>
+        <v>0.2058091312646866</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001423853449523449</v>
+        <v>0.01893467828631401</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001199149759486318</v>
+        <v>0.09392382949590683</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001628972357138991</v>
+        <v>0.04147616028785706</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.001662180759012699</v>
+        <v>0.07366754114627838</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0006180513883009553</v>
+        <v>0.1569629013538361</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0008415348711423576</v>
+        <v>0.02028978615999222</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.001680603250861168</v>
+        <v>0.1177845969796181</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0007709795609116554</v>
+        <v>0.156839445233345</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0003611083375290036</v>
+        <v>0.002235388848930597</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.001471849274821579</v>
+        <v>0.01488877739757299</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0002240870089735836</v>
+        <v>0.01635724678635597</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002365439664572477</v>
+        <v>0.02388394251465797</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0002230855461675674</v>
+        <v>0.1461021155118942</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0006281258538365364</v>
+        <v>0.1644145995378494</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0002326787216588855</v>
+        <v>0.01264888234436512</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.872084436006844e-06</v>
+        <v>0.1194727569818497</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.000494541774969548</v>
+        <v>0.01072664186358452</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.001552323461510241</v>
+        <v>0.1497803330421448</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0006759854732081294</v>
+        <v>0.003402424277737737</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.001328800222836435</v>
+        <v>0.04475263133645058</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.000595505116507411</v>
+        <v>0.07072112709283829</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0006294049089774489</v>
+        <v>0.04052096605300903</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.000630105088930577</v>
+        <v>0.878174901008606</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0005106828175485134</v>
+        <v>0.05174094438552856</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001193589181639254</v>
+        <v>0.2414241582155228</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0006398191908374429</v>
+        <v>0.111790344119072</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00113593612331897</v>
+        <v>0.04300883784890175</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.001349637750536203</v>
+        <v>0.04868219047784805</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004549958975985646</v>
+        <v>0.05600752308964729</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0003849734202958643</v>
+        <v>0.05219222977757454</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0003684228868223727</v>
+        <v>0.04185283184051514</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0007372978143393993</v>
+        <v>0.1596759557723999</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0006735511706210673</v>
+        <v>0.3037259578704834</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0015541190514341</v>
+        <v>0.06143327057361603</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.001322036609053612</v>
+        <v>0.1042862758040428</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0005391198792494833</v>
+        <v>0.05642474070191383</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0006172177381813526</v>
+        <v>0.1711577922105789</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0005348674603737891</v>
+        <v>0.06592734158039093</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002716804854571819</v>
+        <v>0.04458831995725632</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0003852840745821595</v>
+        <v>0.2417017668485641</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001750533992890269</v>
+        <v>0.2125371396541595</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0009808017639443278</v>
+        <v>0.06055916100740433</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.00211315369233489</v>
+        <v>0.1064145267009735</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00027019705157727</v>
+        <v>0.02926983684301376</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.000308976334054023</v>
+        <v>0.04678847268223763</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001018008915707469</v>
+        <v>0.07431694865226746</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0004381576436571777</v>
+        <v>0.01561865955591202</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.001788150169886649</v>
+        <v>0.05166592448949814</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0002440349780954421</v>
+        <v>0.08300057798624039</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0006046685157343745</v>
+        <v>0.4934016168117523</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0004422449856065214</v>
+        <v>0.1352633833885193</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.001242917613126338</v>
+        <v>0.005465812049806118</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001255585695616901</v>
+        <v>0.2352723479270935</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0004757521965075284</v>
+        <v>0.0736326277256012</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001417905325070024</v>
+        <v>0.03235785663127899</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002854766789823771</v>
+        <v>0.01492103561758995</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001772641204297543</v>
+        <v>0.01138682197779417</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0002347184345126152</v>
+        <v>0.006217978894710541</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0004414096474647522</v>
+        <v>0.207612931728363</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0001308967475779355</v>
+        <v>0.03674950078129768</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0003699653025250882</v>
+        <v>0.08809532225131989</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0004256002721376717</v>
+        <v>0.1069542914628983</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.000153686705743894</v>
+        <v>0.003043503034859896</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0003754701465368271</v>
+        <v>0.007507558912038803</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0005945591256022453</v>
+        <v>0.04271337389945984</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0006164388032630086</v>
+        <v>0.06139156967401505</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001045634970068932</v>
+        <v>0.1156429201364517</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.003720854874700308</v>
+        <v>0.02159948088228703</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0002067222085315734</v>
+        <v>0.09863526374101639</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0008837453788146377</v>
+        <v>0.2553120255470276</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001611958723515272</v>
+        <v>0.3681016862392426</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00252029113471508</v>
+        <v>0.3596904873847961</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001291838008910418</v>
+        <v>0.05608350038528442</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.00237569841556251</v>
+        <v>0.04381455108523369</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0002697017043828964</v>
+        <v>0.02166778035461903</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003828521294053644</v>
+        <v>0.03345514833927155</v>
       </c>
       <c r="CW2" t="n">
-        <v>6.956401921343058e-05</v>
+        <v>0.2848554253578186</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.000339159247232601</v>
+        <v>0.05831969156861305</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0001481229846831411</v>
+        <v>0.1053036823868752</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0005239060265012085</v>
+        <v>0.09484438598155975</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.000634754600469023</v>
+        <v>0.02120371907949448</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0005112896906211972</v>
+        <v>0.01152184512466192</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001912700972752646</v>
+        <v>0.008898047730326653</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005103863077238202</v>
+        <v>0.02853538282215595</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0003737097431439906</v>
+        <v>0.01321650389581919</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.001460720086470246</v>
+        <v>0.4403301477432251</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.001869910163804889</v>
+        <v>0.2388953417539597</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0006820359849371016</v>
+        <v>0.1756939888000488</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001419792999513447</v>
+        <v>0.1421290636062622</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00385980773717165</v>
+        <v>0.1858759522438049</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.003590530715882778</v>
+        <v>0.03156177699565887</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0004795908171217889</v>
+        <v>0.04895190522074699</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.003128452925011516</v>
+        <v>0.05176141858100891</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0003060419694520533</v>
+        <v>0.1041740626096725</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.003409557975828648</v>
+        <v>0.2552714943885803</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0007642122218385339</v>
+        <v>0.1536595672369003</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0009109453530982137</v>
+        <v>0.08787408471107483</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002674097195267677</v>
+        <v>0.104115717113018</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0003054658882319927</v>
+        <v>0.006950259208679199</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001202923012897372</v>
+        <v>0.0003533205017447472</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001712207216769457</v>
+        <v>0.05654886364936829</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001051071449182928</v>
+        <v>0.02369843609631062</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001236189971677959</v>
+        <v>0.03943902999162674</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00171502330340445</v>
+        <v>0.1651369333267212</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001520556514151394</v>
+        <v>0.1396316587924957</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0005659406306222081</v>
+        <v>0.1005840003490448</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0008816118934191763</v>
+        <v>0.06392253935337067</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0007645179866813123</v>
+        <v>0.1180911138653755</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0008254089625552297</v>
+        <v>0.02551938220858574</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0009713261970318854</v>
+        <v>0.01055839378386736</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0007969068246893585</v>
+        <v>0.04128244891762733</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0008321985369548202</v>
+        <v>0.02074602246284485</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0007587172440253198</v>
+        <v>0.1851770281791687</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0002250000979984179</v>
+        <v>0.01599340885877609</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0005234766285866499</v>
+        <v>0.05880804732441902</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.001677229767665267</v>
+        <v>0.129828542470932</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00146149517968297</v>
+        <v>0.01512638293206692</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0004795119166374207</v>
+        <v>0.02720356360077858</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0007335924310609698</v>
+        <v>0.03716392070055008</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0003100338799413294</v>
+        <v>0.01624537445604801</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.000306505971821025</v>
+        <v>0.063376285135746</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0008398913778364658</v>
+        <v>0.227984145283699</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0004605570284184068</v>
+        <v>0.2016131728887558</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001648260629735887</v>
+        <v>0.1038226261734962</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0009682422387413681</v>
+        <v>0.04463852569460869</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0006534050335176289</v>
+        <v>0.1341352760791779</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002214308187831193</v>
+        <v>0.006968396715819836</v>
       </c>
       <c r="EV2" t="n">
-        <v>9.654952737037092e-05</v>
+        <v>0.07684089243412018</v>
       </c>
       <c r="EW2" t="n">
-        <v>8.545407035853714e-05</v>
+        <v>0.02181311510503292</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0002208064106525853</v>
+        <v>0.04371149837970734</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.290952786803246e-05</v>
+        <v>0.3043596148490906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0002511477214284241</v>
+        <v>0.03214623406529427</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0007644995930604637</v>
+        <v>0.0832965299487114</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0006021442823112011</v>
+        <v>0.1353512853384018</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.000467444711830467</v>
+        <v>0.004357726778835058</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.000221853464609012</v>
+        <v>0.019576421007514</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0002337619662284851</v>
+        <v>0.01415214780718088</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0009901622543111444</v>
+        <v>0.04723841324448586</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.001582050696015358</v>
+        <v>0.01455065794289112</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001861826865933836</v>
+        <v>0.09587086737155914</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.001447884947992861</v>
+        <v>0.0144626572728157</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.001674540340900421</v>
+        <v>0.1149117052555084</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0005770722636952996</v>
+        <v>0.1862446069717407</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.001818344229832292</v>
+        <v>0.01418110355734825</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.001605508499778807</v>
+        <v>0.053511843085289</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00121862580999732</v>
+        <v>0.005637601017951965</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0004795157583430409</v>
+        <v>0.07008974254131317</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0013740862486884</v>
+        <v>0.06110190227627754</v>
       </c>
       <c r="FQ2" t="n">
-        <v>8.898274973034859e-05</v>
+        <v>0.0784490630030632</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.001707547111436725</v>
+        <v>0.09768033027648926</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0003708041331265122</v>
+        <v>0.01987763121724129</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001540614757686853</v>
+        <v>0.3790296614170074</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0005543785518966615</v>
+        <v>0.06457718461751938</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.001094910432584584</v>
+        <v>0.06836328655481339</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0005655819550156593</v>
+        <v>0.2022904902696609</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001240796700585634</v>
+        <v>0.03829735517501831</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.001877922681160271</v>
+        <v>0.0829424113035202</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0001159082094090991</v>
+        <v>0.1098068207502365</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0007463434594683349</v>
+        <v>0.01848649233579636</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00110444228630513</v>
+        <v>0.1870506703853607</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.001453057513572276</v>
+        <v>0.1569658666849136</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0002944692387245595</v>
+        <v>0.01398047618567944</v>
       </c>
       <c r="GE2" t="n">
-        <v>5.493784556165338e-06</v>
+        <v>0.1104774251580238</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.001330380910076201</v>
+        <v>0.01153608504682779</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001041943440213799</v>
+        <v>0.03456137329339981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2346075177192688</v>
+        <v>0.00864019151777029</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08591663092374802</v>
+        <v>0.0380643866956234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1366657167673111</v>
+        <v>0.0196823924779892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01500836759805679</v>
+        <v>0.1043677777051926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1146861910820007</v>
+        <v>0.006697323173284531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1671775281429291</v>
+        <v>0.06880243122577667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08228085935115814</v>
+        <v>0.02345901355147362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1310204565525055</v>
+        <v>0.02863101661205292</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06231222674250603</v>
+        <v>0.01432810630649328</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2969118356704712</v>
+        <v>0.03808096423745155</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04003694653511047</v>
+        <v>0.001554040238261223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.143810972571373</v>
+        <v>0.006612241268157959</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1022895872592926</v>
+        <v>0.04746078699827194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1648919880390167</v>
+        <v>0.05011096224188805</v>
       </c>
       <c r="O3" t="n">
-        <v>0.108510822057724</v>
+        <v>0.0431721955537796</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09333961457014084</v>
+        <v>0.006427490618079901</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.127607136964798</v>
+        <v>0.05763013288378716</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1071920469403267</v>
+        <v>0.007097181398421526</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001593008637428284</v>
+        <v>0.01158331707119942</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05817509815096855</v>
+        <v>0.02800392173230648</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009223286062479019</v>
+        <v>0.0006628429982811213</v>
       </c>
       <c r="V3" t="n">
-        <v>0.183182567358017</v>
+        <v>0.00183371570892632</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0596717968583107</v>
+        <v>0.002392177004367113</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1390876322984695</v>
+        <v>0.02733576856553555</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05366835370659828</v>
+        <v>0.001538977609016001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.008379150182008743</v>
+        <v>0.0002842610119841993</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04987740516662598</v>
+        <v>0.01196481287479401</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05038154125213623</v>
+        <v>0.0499345101416111</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06607819348573685</v>
+        <v>0.001023621298372746</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04983355104923248</v>
+        <v>0.03852381184697151</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0007305776234716177</v>
+        <v>0.01973825320601463</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1744668632745743</v>
+        <v>0.008607182651758194</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1784609854221344</v>
+        <v>0.01053462270647287</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07204306125640869</v>
+        <v>0.01499388739466667</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01177773345261812</v>
+        <v>0.001484781969338655</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.001499664504081011</v>
+        <v>0.01029084529727697</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02916847169399261</v>
+        <v>0.0116455927491188</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1061089634895325</v>
+        <v>0.005299977026879787</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.003551486879587173</v>
+        <v>0.007079304661601782</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1357147842645645</v>
+        <v>0.000724536890629679</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02085915580391884</v>
+        <v>0.009027485735714436</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0121002160012722</v>
+        <v>0.001842182828113437</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.007968591526150703</v>
+        <v>0.007923232391476631</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1882134675979614</v>
+        <v>0.01129990443587303</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001337356399744749</v>
+        <v>0.002937557408586144</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.05428169667720795</v>
+        <v>0.0107457498088479</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.09692007303237915</v>
+        <v>0.02326549217104912</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1351256817579269</v>
+        <v>0.003716869279742241</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1209418773651123</v>
+        <v>0.03948723897337914</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2871018648147583</v>
+        <v>0.02112981677055359</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.2305179089307785</v>
+        <v>0.02763864398002625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.02273536846041679</v>
+        <v>0.008718281053006649</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1184855550527573</v>
+        <v>0.01176145765930414</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1106123477220535</v>
+        <v>0.0008043479174375534</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.09529442340135574</v>
+        <v>0.001103112008422613</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02788160555064678</v>
+        <v>0.02743983082473278</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1164144203066826</v>
+        <v>0.01148591563105583</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0605827271938324</v>
+        <v>0.04445270448923111</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1337412595748901</v>
+        <v>0.006495481356978416</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.01584808900952339</v>
+        <v>0.01162779796868563</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.08283133804798126</v>
+        <v>0.003058513393625617</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.07380159944295883</v>
+        <v>0.02375434152781963</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1531914621591568</v>
+        <v>0.003469732590019703</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0604730099439621</v>
+        <v>0.03675759583711624</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0477609895169735</v>
+        <v>0.01647890172898769</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02458383142948151</v>
+        <v>0.000724919606000185</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.04344554245471954</v>
+        <v>0.02550854161381721</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1281714290380478</v>
+        <v>0.006540862377732992</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0204592552036047</v>
+        <v>0.0223916694521904</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0703386589884758</v>
+        <v>0.004066943656653166</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.2294479608535767</v>
+        <v>0.008339368738234043</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.003698013722896576</v>
+        <v>0.008496304973959923</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1338740885257721</v>
+        <v>0.01229859888553619</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.2379432767629623</v>
+        <v>0.02142779901623726</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.009059116244316101</v>
+        <v>0.01551825925707817</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.1552037000656128</v>
+        <v>0.02080250345170498</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1506607830524445</v>
+        <v>0.004252218641340733</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1189949214458466</v>
+        <v>0.03385476768016815</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.1328100115060806</v>
+        <v>0.007751786150038242</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.008463431149721146</v>
+        <v>0.01258467137813568</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01684390008449554</v>
+        <v>0.005207293201237917</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0512450598180294</v>
+        <v>0.005235941149294376</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.07996973395347595</v>
+        <v>0.005585602950304747</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03764904290437698</v>
+        <v>0.0003387611359357834</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.03693295270204544</v>
+        <v>0.00130781892221421</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.02030276507139206</v>
+        <v>0.003069204278290272</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.02277037873864174</v>
+        <v>0.01253384258598089</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0428248718380928</v>
+        <v>0.01019256934523582</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.1135038584470749</v>
+        <v>0.00572240399196744</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.02587155811488628</v>
+        <v>9.592098649591208e-06</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1068235039710999</v>
+        <v>0.003663265379145741</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0252508819103241</v>
+        <v>0.005072697065770626</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.1341638565063477</v>
+        <v>0.0166610162705183</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.07221052050590515</v>
+        <v>0.01394754461944103</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.001247897744178772</v>
+        <v>0.0007364398334175348</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.120061956346035</v>
+        <v>0.002910277340561152</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.07553879171609879</v>
+        <v>0.0287872888147831</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.06050736829638481</v>
+        <v>0.01629763469099998</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.02172711491584778</v>
+        <v>0.0138041190803051</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.07659844309091568</v>
+        <v>0.01170811057090759</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0917031541466713</v>
+        <v>0.01178235746920109</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.03246286511421204</v>
+        <v>0.004992860369384289</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.04095559194684029</v>
+        <v>0.004802721552550793</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01883066445589066</v>
+        <v>0.004334909375756979</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01631482690572739</v>
+        <v>0.01270303595811129</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.09500008821487427</v>
+        <v>0.007740258239209652</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.08850762993097305</v>
+        <v>0.004142408724874258</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.01797717437148094</v>
+        <v>0.002128761494532228</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.03601159527897835</v>
+        <v>0.02314698696136475</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1686020195484161</v>
+        <v>0.03590552136301994</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.04553776234388351</v>
+        <v>0.002625304739922285</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.1980137974023819</v>
+        <v>0.0197526216506958</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1513103097677231</v>
+        <v>0.03424512222409248</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0857304185628891</v>
+        <v>0.001502299448475242</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.2323061972856522</v>
+        <v>0.01826825737953186</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1245394498109818</v>
+        <v>0.005041483789682388</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.04100947454571724</v>
+        <v>0.002290547825396061</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02648616395890713</v>
+        <v>0.008124658837914467</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.06863676011562347</v>
+        <v>0.02645096182823181</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.003585262224078178</v>
+        <v>0.009599621407687664</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.03354254364967346</v>
+        <v>0.0002581316512078047</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.1724785268306732</v>
+        <v>0.02298086881637573</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.2038129568099976</v>
+        <v>0.01388822216540575</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.05254903808236122</v>
+        <v>0.0296727754175663</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.05425435304641724</v>
+        <v>0.01439779251813889</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.02586154639720917</v>
+        <v>0.01518238987773657</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.07406117767095566</v>
+        <v>0.00900209229439497</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.1043818891048431</v>
+        <v>0.01787546835839748</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.05751108005642891</v>
+        <v>0.01107390597462654</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.04551988840103149</v>
+        <v>0.0008564288727939129</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.04868248477578163</v>
+        <v>0.001311077736318111</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.102470301091671</v>
+        <v>0.01675407588481903</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001570893451571465</v>
+        <v>0.003658785717561841</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.03665468841791153</v>
+        <v>0.01154082641005516</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.05846702679991722</v>
+        <v>0.007257948629558086</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.09107258170843124</v>
+        <v>0.01195546239614487</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.1053328588604927</v>
+        <v>0.01695110462605953</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04841360449790955</v>
+        <v>0.004827768076211214</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.08432476222515106</v>
+        <v>0.00161588960327208</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04078242927789688</v>
+        <v>0.004945778753608465</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03816768527030945</v>
+        <v>0.009456627070903778</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.07286899536848068</v>
+        <v>0.001007850631140172</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.09270478785037994</v>
+        <v>0.0006846474716439843</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.04640328511595726</v>
+        <v>0.009536869823932648</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.06330808997154236</v>
+        <v>0.02835844270884991</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0582277923822403</v>
+        <v>0.01333721447736025</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.04867437481880188</v>
+        <v>0.02843926474452019</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0510312020778656</v>
+        <v>0.002559422049671412</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.1264328360557556</v>
+        <v>0.05881958082318306</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.03748723492026329</v>
+        <v>0.01185017451643944</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.01969465985894203</v>
+        <v>0.001355522777885199</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.03226235136389732</v>
+        <v>0.0001883461372926831</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.09198684245347977</v>
+        <v>0.01108589954674244</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.08628958463668823</v>
+        <v>0.01176062691956758</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.1205457970499992</v>
+        <v>0.009093674831092358</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01396911963820457</v>
+        <v>0.004180287942290306</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.04464054852724075</v>
+        <v>0.009010422974824905</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0231925044208765</v>
+        <v>0.006397532764822245</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01933274045586586</v>
+        <v>0.009397312067449093</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.055893175303936</v>
+        <v>0.005821723956614733</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.104612410068512</v>
+        <v>0.0002399873628746718</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.003216577228158712</v>
+        <v>0.0006216907640919089</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.002201199531555176</v>
+        <v>0.007139952853322029</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.2010593861341476</v>
+        <v>0.01473837159574032</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.07302375137805939</v>
+        <v>0.0124340858310461</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.01742665469646454</v>
+        <v>0.0008973740041255951</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.06020431965589523</v>
+        <v>0.04881403967738152</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.005828685592859983</v>
+        <v>0.01266441680490971</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.01352952606976032</v>
+        <v>0.02298224158585072</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.1794977188110352</v>
+        <v>0.00316500966437161</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.05613343417644501</v>
+        <v>0.002956437412649393</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.02688269875943661</v>
+        <v>0.01197852194309235</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.2127218991518021</v>
+        <v>0.03690861910581589</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.1674421578645706</v>
+        <v>0.001020527328364551</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01460029184818268</v>
+        <v>0.01387197524309158</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.1424045413732529</v>
+        <v>0.04055220633745193</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.02734522148966789</v>
+        <v>0.01587885804474354</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0125392209738493</v>
+        <v>0.003993905615061522</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.1835023313760757</v>
+        <v>0.006773208267986774</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.1500857919454575</v>
+        <v>0.001682029105722904</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1035847440361977</v>
+        <v>0.003333848202601075</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1030751615762711</v>
+        <v>0.01802017912268639</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.04182491078972816</v>
+        <v>0.003119104076176882</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1572124361991882</v>
+        <v>0.01120775938034058</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.04258906841278076</v>
+        <v>0.02297967858612537</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0298626609146595</v>
+        <v>0.008625494316220284</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.1065355464816093</v>
+        <v>0.002200185786932707</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.191221296787262</v>
+        <v>0.01598585397005081</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.01671010255813599</v>
+        <v>0.001099998713470995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.031112181721255e-05</v>
+        <v>5.046915248385631e-06</v>
       </c>
       <c r="B4" t="n">
-        <v>1.929732025018893e-05</v>
+        <v>8.161646292137448e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>1.066703225660603e-05</v>
+        <v>5.377115940063959e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>3.458155697444454e-05</v>
+        <v>1.509217327111401e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>9.296005737269297e-05</v>
+        <v>2.32793900067918e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001032018844853155</v>
+        <v>1.799926849344047e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>7.810645911376923e-05</v>
+        <v>3.850095708912704e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>7.843235835025553e-06</v>
+        <v>2.467571675879299e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0568930520094e-05</v>
+        <v>3.852223926514853e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>8.489234460284933e-05</v>
+        <v>6.916412530699745e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>1.747998976497911e-05</v>
+        <v>8.393315511057153e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>3.350484257680364e-05</v>
+        <v>5.087401859782403e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4546452803188e-05</v>
+        <v>1.520367550256196e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>7.038851617835462e-05</v>
+        <v>1.59353453454969e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>7.516579353250563e-05</v>
+        <v>8.173330570571125e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>3.847735933959484e-05</v>
+        <v>1.834932845667936e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.301191777107306e-06</v>
+        <v>5.005584625905612e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>2.767639489320572e-05</v>
+        <v>2.792148507069214e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>3.094507337664254e-05</v>
+        <v>2.159592895623064e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5167648649076e-06</v>
+        <v>3.217982339265291e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.658324435993563e-05</v>
+        <v>6.015679900883697e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001012866123346612</v>
+        <v>5.540130132430932e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>4.496997280512005e-05</v>
+        <v>2.817244649122586e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.399341792624909e-05</v>
+        <v>4.341899057180854e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.85493663593661e-05</v>
+        <v>1.631900431675604e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.239881723653525e-05</v>
+        <v>2.517310122129857e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.923587064491585e-05</v>
+        <v>6.872738822494284e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.105168394133216e-06</v>
+        <v>3.108588316536043e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.492191768193152e-05</v>
+        <v>2.284944912389619e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.815718835336156e-05</v>
+        <v>1.236114940184052e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.50181856751442e-07</v>
+        <v>3.528190973156597e-06</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.427412618999369e-05</v>
+        <v>7.298358923435444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.615774964302545e-06</v>
+        <v>2.147777195204981e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.925374064943753e-05</v>
+        <v>5.255567430140218e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.167312348115956e-06</v>
+        <v>2.075654492728063e-06</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.553496415202972e-06</v>
+        <v>1.733188923935813e-06</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.61009027378168e-06</v>
+        <v>3.003694246217492e-06</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.074505871656584e-05</v>
+        <v>7.126384844013955e-06</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.637409463408403e-05</v>
+        <v>3.133027917101572e-07</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.511287675588392e-06</v>
+        <v>1.598450239725935e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.544355766076478e-06</v>
+        <v>1.412210615114873e-08</v>
       </c>
       <c r="AP4" t="n">
-        <v>9.428062185179442e-06</v>
+        <v>7.37534776362736e-07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.957270564569626e-07</v>
+        <v>7.572390359200654e-07</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.872676072409377e-06</v>
+        <v>6.698926426906837e-07</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.672730104473885e-05</v>
+        <v>2.438916453684215e-06</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.199174559791572e-05</v>
+        <v>2.725065087361145e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.63857257575728e-05</v>
+        <v>3.504464757497772e-06</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.222531657025684e-05</v>
+        <v>2.306310761923669e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.208916000905447e-05</v>
+        <v>7.524568900407758e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.784698699542787e-05</v>
+        <v>2.251721980428556e-06</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.817966924339999e-05</v>
+        <v>2.853426394722192e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.755881930876058e-05</v>
+        <v>3.747595656022895e-07</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.218954821524676e-05</v>
+        <v>1.802881826051816e-07</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.655239040905144e-05</v>
+        <v>3.652501618489623e-06</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.810281850746833e-05</v>
+        <v>2.362223483487469e-07</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.554156359721674e-06</v>
+        <v>1.271188011742197e-06</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.052602965501137e-05</v>
+        <v>2.779185933832196e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.797588422254194e-05</v>
+        <v>6.389296686393209e-06</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.94343439640943e-05</v>
+        <v>3.798491661655135e-06</v>
       </c>
       <c r="BH4" t="n">
-        <v>6.754334026481956e-05</v>
+        <v>2.804863470373675e-06</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.8744658518699e-06</v>
+        <v>1.33149410430633e-06</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.521333175944164e-05</v>
+        <v>8.528011221642373e-07</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.891673036880093e-06</v>
+        <v>1.162669377663406e-06</v>
       </c>
       <c r="BL4" t="n">
-        <v>7.943081982375588e-06</v>
+        <v>8.440192686975934e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.889098166429903e-05</v>
+        <v>6.970933100092225e-06</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.701209364720853e-07</v>
+        <v>1.018857005874452e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.172596057585906e-06</v>
+        <v>5.520768695532752e-07</v>
       </c>
       <c r="BP4" t="n">
-        <v>7.156623723858502e-06</v>
+        <v>1.63662593877234e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.152038309257478e-05</v>
+        <v>4.588032425090205e-07</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.727024522959255e-05</v>
+        <v>1.828084350563586e-07</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.784565367619507e-05</v>
+        <v>2.096615844493499e-06</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.760330292199797e-06</v>
+        <v>1.493085619586054e-07</v>
       </c>
       <c r="BU4" t="n">
-        <v>4.632967466022819e-05</v>
+        <v>4.260833520675078e-06</v>
       </c>
       <c r="BV4" t="n">
-        <v>9.373099601361901e-06</v>
+        <v>2.65684775513364e-06</v>
       </c>
       <c r="BW4" t="n">
-        <v>9.246764420822728e-08</v>
+        <v>1.666600724092859e-06</v>
       </c>
       <c r="BX4" t="n">
-        <v>4.860777335125022e-05</v>
+        <v>1.904627879412146e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.991523772128858e-05</v>
+        <v>4.832257673115237e-06</v>
       </c>
       <c r="BZ4" t="n">
-        <v>6.218859925866127e-05</v>
+        <v>1.284475729335099e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.515784697403433e-05</v>
+        <v>7.342283652178594e-07</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.649403313625953e-06</v>
+        <v>1.397333221575536e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>4.149489541305229e-06</v>
+        <v>9.914484735418228e-07</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.025176061375532e-05</v>
+        <v>3.888232640747447e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>6.085179848014377e-06</v>
+        <v>1.130308987740136e-06</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.168923740304308e-06</v>
+        <v>9.667820677350392e-07</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.300287633261178e-05</v>
+        <v>4.566148618323496e-06</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.341171082458459e-05</v>
+        <v>8.722597613086691e-07</v>
       </c>
       <c r="CI4" t="n">
-        <v>7.8603425208712e-06</v>
+        <v>1.272921167583263e-06</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.607566602819134e-05</v>
+        <v>8.334691870004463e-07</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.019948988163378e-05</v>
+        <v>1.24776124721393e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.074531837730319e-06</v>
+        <v>5.295015057527053e-07</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.848184547270648e-05</v>
+        <v>1.919341912071104e-07</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.828593849495519e-05</v>
+        <v>1.277073579331045e-06</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.363993033010047e-05</v>
+        <v>1.074573447112925e-06</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.756566340802237e-05</v>
+        <v>5.262289050733671e-06</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3.225023465347476e-05</v>
+        <v>3.561003040886135e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.433089892088901e-05</v>
+        <v>9.894181403069524e-07</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.074448639177717e-05</v>
+        <v>3.783317652050755e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.007546208915301e-05</v>
+        <v>4.659144906327128e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>4.469797204365022e-05</v>
+        <v>2.846930556188454e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>6.860471330583096e-06</v>
+        <v>4.54445125797065e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>7.080760951794218e-06</v>
+        <v>1.273426505576936e-06</v>
       </c>
       <c r="CX4" t="n">
-        <v>7.216687208710937e-06</v>
+        <v>4.308040502110089e-08</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.656510696397163e-05</v>
+        <v>3.321086296637077e-06</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.923551280924585e-05</v>
+        <v>5.387856845118222e-07</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.518044246040517e-05</v>
+        <v>1.561802037031157e-06</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.641468043089844e-05</v>
+        <v>5.648524847856606e-07</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.772338146110997e-05</v>
+        <v>1.30080979943159e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.988290387089364e-05</v>
+        <v>7.035660587462189e-07</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.770304308796767e-05</v>
+        <v>6.710116622343776e-07</v>
       </c>
       <c r="DF4" t="n">
-        <v>3.53644645656459e-06</v>
+        <v>9.03796808415791e-06</v>
       </c>
       <c r="DG4" t="n">
-        <v>6.612473953282461e-06</v>
+        <v>3.465427198534599e-06</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.606127079867292e-05</v>
+        <v>1.896133198897587e-06</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.516912288934691e-05</v>
+        <v>6.704971838189522e-06</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.320870069321245e-06</v>
+        <v>4.479014933167491e-06</v>
       </c>
       <c r="DK4" t="n">
-        <v>4.945708133163862e-05</v>
+        <v>6.24983567831805e-06</v>
       </c>
       <c r="DL4" t="n">
-        <v>9.766082257556263e-06</v>
+        <v>1.596144159066171e-07</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.874419467640109e-05</v>
+        <v>2.933717496489407e-06</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.95825778064318e-05</v>
+        <v>3.58941520062217e-06</v>
       </c>
       <c r="DO4" t="n">
-        <v>4.621164180207415e-07</v>
+        <v>1.242457187800028e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>2.034730277955532e-05</v>
+        <v>4.251673544786172e-06</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2.966371357615571e-05</v>
+        <v>6.254308118514018e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>5.897779374208767e-06</v>
+        <v>8.238690156758821e-07</v>
       </c>
       <c r="DS4" t="n">
-        <v>3.528445859046769e-06</v>
+        <v>4.288999093660095e-07</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.1538842045411e-05</v>
+        <v>1.290662510200491e-07</v>
       </c>
       <c r="DU4" t="n">
-        <v>3.240777732571587e-05</v>
+        <v>8.699093996256124e-07</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.548090222058818e-05</v>
+        <v>1.56250393956725e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>2.699934702832252e-05</v>
+        <v>2.721058990573511e-06</v>
       </c>
       <c r="DX4" t="n">
-        <v>6.436955118260812e-06</v>
+        <v>2.909481281676563e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.368429704802111e-05</v>
+        <v>2.336974347372234e-08</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.969221895909868e-05</v>
+        <v>1.761631892804871e-06</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.273717836942524e-05</v>
+        <v>1.712477342152852e-06</v>
       </c>
       <c r="EB4" t="n">
-        <v>9.075434718397446e-06</v>
+        <v>3.590744654502487e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>2.818028588080779e-05</v>
+        <v>2.996468310811906e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>5.524090738617815e-06</v>
+        <v>4.055078534292988e-06</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.013733708532527e-05</v>
+        <v>2.090307589242002e-06</v>
       </c>
       <c r="EF4" t="n">
-        <v>2.884766763600055e-05</v>
+        <v>1.538589003757806e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.560680852388032e-06</v>
+        <v>1.076922444553929e-06</v>
       </c>
       <c r="EH4" t="n">
-        <v>5.336721073945228e-07</v>
+        <v>1.377583203066024e-07</v>
       </c>
       <c r="EI4" t="n">
-        <v>2.19098110392224e-05</v>
+        <v>7.755133083264809e-06</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.536632225906942e-05</v>
+        <v>1.289031843043631e-06</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.482322022638982e-05</v>
+        <v>1.364703393846867e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>8.306600648211315e-06</v>
+        <v>1.047881482918456e-06</v>
       </c>
       <c r="EM4" t="n">
-        <v>7.106679277057992e-06</v>
+        <v>4.012303634226555e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.846916711656377e-05</v>
+        <v>1.132499960476707e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.798647826944944e-05</v>
+        <v>5.979467459837906e-06</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.364980718994047e-05</v>
+        <v>7.803150197105424e-07</v>
       </c>
       <c r="EQ4" t="n">
-        <v>7.422575890814187e-06</v>
+        <v>3.975742856709985e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.217028329847381e-05</v>
+        <v>2.671124775588396e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.477389741921797e-05</v>
+        <v>6.197442417033017e-07</v>
       </c>
       <c r="ET4" t="n">
-        <v>7.287719654414104e-06</v>
+        <v>5.194694495003205e-06</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.483615571691189e-05</v>
+        <v>1.147621674135735e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>8.9465993369231e-06</v>
+        <v>1.351645664726675e-06</v>
       </c>
       <c r="EW4" t="n">
-        <v>4.296906627132557e-05</v>
+        <v>3.788366029766621e-06</v>
       </c>
       <c r="EX4" t="n">
-        <v>8.858240107656457e-06</v>
+        <v>5.089271326141898e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.025333222059999e-05</v>
+        <v>1.645360725888168e-06</v>
       </c>
       <c r="EZ4" t="n">
-        <v>6.143740392872132e-06</v>
+        <v>2.896740056712588e-07</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.975160375877749e-05</v>
+        <v>4.539132078207331e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.368375135120004e-05</v>
+        <v>7.957262369018281e-07</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.419062209606636e-05</v>
+        <v>6.064749982215289e-07</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.047657042363426e-05</v>
+        <v>1.970733478628972e-07</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.063534338958561e-05</v>
+        <v>3.880349481732992e-07</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.586691380201955e-06</v>
+        <v>1.385401333209302e-06</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.25056464842055e-05</v>
+        <v>5.486799636855721e-08</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.987112227652688e-05</v>
+        <v>5.242372026259545e-06</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.622413947188761e-06</v>
+        <v>7.943755235828576e-07</v>
       </c>
       <c r="FJ4" t="n">
-        <v>5.109081030241214e-05</v>
+        <v>3.163554310958716e-06</v>
       </c>
       <c r="FK4" t="n">
-        <v>1.766184504958801e-05</v>
+        <v>2.58476211456582e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.785610195132904e-05</v>
+        <v>3.684489229272003e-07</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.035110239579808e-06</v>
+        <v>1.66783468102949e-06</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.388348755426705e-05</v>
+        <v>3.000385049745091e-06</v>
       </c>
       <c r="FO4" t="n">
-        <v>5.357931149774231e-05</v>
+        <v>6.914733603480272e-07</v>
       </c>
       <c r="FP4" t="n">
-        <v>5.962672730674967e-06</v>
+        <v>9.586118721927051e-06</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.231110920547508e-05</v>
+        <v>4.418921889737248e-06</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.02520786842797e-05</v>
+        <v>3.812705017480766e-06</v>
       </c>
       <c r="FS4" t="n">
-        <v>7.261317659867927e-05</v>
+        <v>5.346457783161895e-07</v>
       </c>
       <c r="FT4" t="n">
-        <v>3.983491842518561e-05</v>
+        <v>4.107799895791686e-07</v>
       </c>
       <c r="FU4" t="n">
-        <v>5.011762823414756e-06</v>
+        <v>3.580510110623436e-06</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.637299934984185e-05</v>
+        <v>9.023131497087888e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>4.593857011059299e-05</v>
+        <v>7.303407983272336e-06</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.210556678823195e-05</v>
+        <v>7.940103046166769e-07</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.895076275104657e-05</v>
+        <v>8.445164894510526e-06</v>
       </c>
       <c r="FZ4" t="n">
-        <v>4.082676696270937e-06</v>
+        <v>8.964114499576681e-07</v>
       </c>
       <c r="GA4" t="n">
-        <v>4.048171831527725e-06</v>
+        <v>6.647081136179622e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>2.958167351607699e-05</v>
+        <v>3.20871731673833e-06</v>
       </c>
       <c r="GC4" t="n">
-        <v>7.569600711576641e-06</v>
+        <v>3.870020464091795e-06</v>
       </c>
       <c r="GD4" t="n">
-        <v>7.911526336101815e-05</v>
+        <v>4.486813395487843e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.044094955839682e-05</v>
+        <v>4.694090876000701e-06</v>
       </c>
       <c r="GF4" t="n">
-        <v>6.365092849591747e-05</v>
+        <v>5.760383828601334e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.380998310196446e-05</v>
+        <v>3.851861038128845e-06</v>
       </c>
     </row>
     <row r="5">
